--- a/01_基本設計書/03_外部レビュー/チーム1/基本設計書_社員情報一覧(ver1.0、安).xlsx
+++ b/01_基本設計書/03_外部レビュー/チーム1/基本設計書_社員情報一覧(ver1.0、安).xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202306\01_基本設計書\03_外部レビュー\チーム1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202306_02\01_基本設計書\03_外部レビュー\チーム1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3A7DF-C36D-442A-BA95-6256F5976FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D948E-D1FF-4852-A493-65B3E248E45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2798" yWindow="-16297" windowWidth="28996" windowHeight="15675" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1614,6 +1614,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,23 +1624,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1659,8 +1645,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1674,8 +1666,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1690,25 +1709,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2773,7 +2773,7 @@
         <xdr:cNvPr id="2" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6FDF1-ABAE-6418-F432-D28F9AE7CEAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2841,7 @@
         <xdr:cNvPr id="3" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5BED92-2E72-4E30-89BB-65B3BEF5CB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2912,7 @@
         <xdr:cNvPr id="4" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F0320C-8607-796A-E2B9-CA5B9CE1ED84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2978,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>128587</xdr:colOff>
+          <xdr:colOff>128588</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -5924,72 +5924,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -6161,124 +6161,124 @@
     </row>
     <row r="11" spans="1:176" ht="12">
       <c r="A11" s="11"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="83" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="83" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83" t="s">
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="83" t="s">
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="85"/>
+      <c r="AE11" s="90"/>
       <c r="AF11" s="54"/>
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="11"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="86" t="s">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="93" t="s">
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="93" t="s">
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="86" t="s">
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="AE12" s="88"/>
+      <c r="AE12" s="84"/>
       <c r="AF12" s="54"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="11"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="91"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="87"/>
       <c r="AF13" s="54"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -6579,630 +6579,630 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="77" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="77" t="s">
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="80"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="95">
         <v>45082</v>
       </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="77" t="s">
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="77" t="s">
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="79"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="80"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="79"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="80"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="79"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="80"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="79"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="80"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="79"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="80"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="79"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="80"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="79"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="80"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="79"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="79"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="80"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="79"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="80"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="79"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="80"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="77"/>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="79"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="78"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="80"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="79"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="80"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="77"/>
-      <c r="AD38" s="78"/>
-      <c r="AE38" s="79"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="78"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="80"/>
       <c r="AF38" s="12"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="77"/>
-      <c r="AD39" s="78"/>
-      <c r="AE39" s="79"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="80"/>
+      <c r="AC39" s="78"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="80"/>
       <c r="AF39" s="12"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="78"/>
-      <c r="V40" s="78"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="77"/>
-      <c r="AD40" s="78"/>
-      <c r="AE40" s="79"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="80"/>
       <c r="AF40" s="12"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -7241,17 +7241,62 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="J26:AB26"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -7268,62 +7313,17 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7355,171 +7355,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="90"/>
       <c r="AD2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="18"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="90"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="86" t="str">
+      <c r="A3" s="82" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="86" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="82" t="str">
         <f>表紙!G12</f>
         <v>社員情報一覧</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="86" t="str">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="82" t="str">
         <f>表紙!M12</f>
         <v>社員情報一覧（画面）/勤怠承認詳細（画面）</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="86" t="str">
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82" t="str">
         <f>表紙!AB12</f>
         <v>SYM</v>
       </c>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="86" t="str">
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="82" t="str">
         <f>表紙!AD12</f>
         <v>安</v>
       </c>
-      <c r="AG3" s="88"/>
+      <c r="AG3" s="84"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="91"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="87"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="19"/>
@@ -8959,16 +8959,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9001,171 +9001,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="90"/>
       <c r="AD2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="18"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="90"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="86" t="str">
+      <c r="A3" s="82" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="86" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="82" t="str">
         <f>表紙!G12</f>
         <v>社員情報一覧</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="86" t="str">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="82" t="str">
         <f>表紙!M12</f>
         <v>社員情報一覧（画面）/勤怠承認詳細（画面）</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="86" t="str">
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82" t="str">
         <f>表紙!AB12</f>
         <v>SYM</v>
       </c>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="86" t="str">
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="82" t="str">
         <f>表紙!AD12</f>
         <v>安</v>
       </c>
-      <c r="AG3" s="88"/>
+      <c r="AG3" s="84"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="100"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="107"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="57"/>
@@ -9759,46 +9759,46 @@
       <c r="B17" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="71"/>
       <c r="H17" s="71" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="71"/>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="103" t="s">
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="105"/>
-      <c r="P17" s="103" t="s">
+      <c r="O17" s="101"/>
+      <c r="P17" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="103" t="s">
+      <c r="Q17" s="100"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="104"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="103" t="s">
+      <c r="T17" s="100"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="105"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="101"/>
       <c r="AC17" s="63"/>
       <c r="AD17" s="59"/>
       <c r="AE17" s="59"/>
@@ -9809,48 +9809,48 @@
     <row r="18" spans="1:34" ht="12.75" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="71"/>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="103" t="s">
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104" t="s">
+      <c r="H18" s="100"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="103" t="s">
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="105"/>
-      <c r="P18" s="103" t="s">
+      <c r="O18" s="101"/>
+      <c r="P18" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="103" t="s">
+      <c r="Q18" s="100"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="104"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="103" t="s">
+      <c r="T18" s="100"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="105"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="101"/>
       <c r="AC18" s="64" t="s">
         <v>73</v>
       </c>
@@ -9863,36 +9863,36 @@
     <row r="19" spans="1:34" ht="12.75" customHeight="1">
       <c r="A19" s="58"/>
       <c r="B19" s="71"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="103" t="s">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="105"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="103" t="s">
+      <c r="O19" s="101"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="T19" s="104"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="105"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="101"/>
       <c r="AC19" s="64"/>
       <c r="AD19" s="59"/>
       <c r="AE19" s="59"/>
@@ -9903,34 +9903,34 @@
     <row r="20" spans="1:34" ht="12.75" customHeight="1">
       <c r="A20" s="58"/>
       <c r="B20" s="71"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="103" t="s">
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="105"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="105"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="101"/>
       <c r="AC20" s="64"/>
       <c r="AD20" s="59"/>
       <c r="AE20" s="59"/>
@@ -9941,32 +9941,32 @@
     <row r="21" spans="1:34" ht="12.75" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="71"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="105"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="101"/>
       <c r="AC21" s="64"/>
       <c r="AD21" s="59"/>
       <c r="AE21" s="59"/>
@@ -9977,32 +9977,32 @@
     <row r="22" spans="1:34" ht="12.75" customHeight="1">
       <c r="A22" s="58"/>
       <c r="B22" s="71"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="105"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="101"/>
       <c r="AC22" s="64"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -10013,32 +10013,32 @@
     <row r="23" spans="1:34" ht="12.75" customHeight="1">
       <c r="A23" s="58"/>
       <c r="B23" s="71"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="105"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="101"/>
       <c r="AC23" s="64"/>
       <c r="AD23" s="59"/>
       <c r="AE23" s="59"/>
@@ -10049,32 +10049,32 @@
     <row r="24" spans="1:34" ht="12.75" customHeight="1">
       <c r="A24" s="58"/>
       <c r="B24" s="71"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="105"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="101"/>
       <c r="AC24" s="64"/>
       <c r="AD24" s="59"/>
       <c r="AE24" s="59"/>
@@ -10085,32 +10085,32 @@
     <row r="25" spans="1:34" ht="12.75" customHeight="1">
       <c r="A25" s="58"/>
       <c r="B25" s="71"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="105"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="101"/>
       <c r="AC25" s="64"/>
       <c r="AD25" s="59"/>
       <c r="AE25" s="59"/>
@@ -10121,32 +10121,32 @@
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
       <c r="A26" s="58"/>
       <c r="B26" s="71"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="105"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="101"/>
       <c r="AC26" s="64"/>
       <c r="AD26" s="59"/>
       <c r="AE26" s="59"/>
@@ -10157,32 +10157,32 @@
     <row r="27" spans="1:34" ht="12.75" customHeight="1">
       <c r="A27" s="58"/>
       <c r="B27" s="71"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="105"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="101"/>
       <c r="AC27" s="64"/>
       <c r="AD27" s="59"/>
       <c r="AE27" s="59"/>
@@ -10193,32 +10193,32 @@
     <row r="28" spans="1:34" ht="12.75" customHeight="1">
       <c r="A28" s="58"/>
       <c r="B28" s="71"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="105"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="101"/>
       <c r="AC28" s="64"/>
       <c r="AD28" s="59"/>
       <c r="AE28" s="59"/>
@@ -10229,32 +10229,32 @@
     <row r="29" spans="1:34" ht="12.75" customHeight="1">
       <c r="A29" s="58"/>
       <c r="B29" s="71"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="105"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="101"/>
       <c r="AC29" s="64"/>
       <c r="AD29" s="59"/>
       <c r="AE29" s="59"/>
@@ -10265,32 +10265,32 @@
     <row r="30" spans="1:34" ht="12.75" customHeight="1">
       <c r="A30" s="58"/>
       <c r="B30" s="71"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="105"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="101"/>
       <c r="AC30" s="64" t="s">
         <v>74</v>
       </c>
@@ -10382,46 +10382,46 @@
       <c r="F38" s="31"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="103" t="s">
+      <c r="I38" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="105"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
       <c r="M38" s="71"/>
       <c r="N38" s="71" t="s">
         <v>59</v>
       </c>
       <c r="O38" s="71"/>
-      <c r="P38" s="103" t="s">
+      <c r="P38" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="103" t="s">
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="U38" s="105"/>
-      <c r="V38" s="103" t="s">
+      <c r="U38" s="101"/>
+      <c r="V38" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="W38" s="104"/>
-      <c r="X38" s="105"/>
-      <c r="Y38" s="103" t="s">
+      <c r="W38" s="100"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="105"/>
-      <c r="AB38" s="103" t="s">
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="104"/>
-      <c r="AG38" s="104"/>
-      <c r="AH38" s="105"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="100"/>
+      <c r="AE38" s="100"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="100"/>
+      <c r="AH38" s="101"/>
     </row>
     <row r="39" spans="1:36" ht="12.75" customHeight="1">
       <c r="A39" s="9"/>
@@ -11012,7 +11012,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="106"/>
+      <c r="I56" s="77"/>
       <c r="J56" s="51" t="s">
         <v>86</v>
       </c>
@@ -11022,8 +11022,8 @@
       <c r="N56" s="51"/>
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
-      <c r="Q56" s="106"/>
-      <c r="R56" s="106"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -11075,6 +11075,96 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AB19"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AB21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AB23"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AB25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AB27"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V28:AB28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AB29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
     <mergeCell ref="AB38:AH38"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="P38:S38"/>
@@ -11094,100 +11184,10 @@
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="G30:I30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V28:AB28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AB29"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
     <mergeCell ref="V26:AB26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AB27"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
     <mergeCell ref="V24:AB24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AB25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
     <mergeCell ref="V22:AB22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AB23"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
     <mergeCell ref="V20:AB20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AB21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AB19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -11239,12 +11239,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:AA32"/>
+      <selection pane="bottomLeft" activeCell="AO38" sqref="AO38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -11257,171 +11258,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="90"/>
       <c r="AD2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="18"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="90"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="86" t="str">
+      <c r="A3" s="82" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="86" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="82" t="str">
         <f>表紙!G12</f>
         <v>社員情報一覧</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="86" t="str">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="82" t="str">
         <f>表紙!M12</f>
         <v>社員情報一覧（画面）/勤怠承認詳細（画面）</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="86" t="str">
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82" t="str">
         <f>表紙!AB12</f>
         <v>SYM</v>
       </c>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="86" t="str">
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="82" t="str">
         <f>表紙!AD12</f>
         <v>安</v>
       </c>
-      <c r="AG3" s="88"/>
+      <c r="AG3" s="84"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="100"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="107"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="59"/>
@@ -12791,16 +12792,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
@@ -12904,7 +12905,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="108" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -12922,7 +12923,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="102"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="37" t="s">
         <v>24</v>
       </c>
